--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/2017/IMPB SmartPost.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/2017/IMPB SmartPost.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="155">
   <si>
     <t>CUSTOMER_REFERENCE</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>Bound Printed Matter 2D Bar code</t>
+  </si>
+  <si>
+    <t>SaveLabel</t>
   </si>
 </sst>
 </file>
@@ -781,7 +784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1088,30 +1091,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1307,6 +1286,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1679,33 +1671,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="360" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="35" xfId="360" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="33" xfId="360" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="30" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="28" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="7" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1742,40 +1734,40 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="36" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="34" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="28" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="26" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="11" borderId="28" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="26" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="11" borderId="28" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="26" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="28" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="26" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="28" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="26" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="20" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="29" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="27" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="11" borderId="29" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="27" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="11" borderId="29" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="27" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="29" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="27" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="29" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="27" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="21" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,7 +1815,7 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="24" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1837,58 +1829,58 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="33" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="23" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="6" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="14" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="15" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="13" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="12" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="38" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="39" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="19" xfId="361" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="32" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="11" borderId="25" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" xfId="361" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="361" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="36" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="11" borderId="25" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="11" borderId="6" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="11" borderId="14" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="11" borderId="15" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="11" borderId="13" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="11" borderId="12" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="11" borderId="40" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="11" borderId="41" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="19" xfId="361" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="11" borderId="34" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="11" borderId="27" xfId="360" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" xfId="361" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="361" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="37" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="39" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="37" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1908,20 +1900,29 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="32" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="30" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="33" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="31" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="22" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="23" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="24" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="40" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="364">
@@ -2638,13 +2639,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AR34"/>
+  <dimension ref="A1:AR34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W13" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="9" customWidth="1"/>
     <col min="3" max="4" width="30.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" style="9" customWidth="1"/>
@@ -4452,7 +4455,10 @@
     <col min="16160" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>154</v>
+      </c>
       <c r="B1" s="82" t="s">
         <v>114</v>
       </c>
@@ -4461,7 +4467,8 @@
       </c>
       <c r="D1" s="81"/>
     </row>
-    <row r="2" spans="2:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="87"/>
       <c r="B2" s="83"/>
       <c r="C2" s="10" t="s">
         <v>84</v>
@@ -4488,7 +4495,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="2:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
       <c r="B3" s="83"/>
       <c r="C3" s="7">
         <v>630151821</v>
@@ -4513,45 +4521,52 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="2:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
       <c r="B4" s="83"/>
       <c r="C4" s="11" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5" s="87"/>
       <c r="B5" s="83"/>
       <c r="C5" s="13" t="s">
         <v>143</v>
       </c>
       <c r="D5" s="14"/>
     </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" s="87"/>
       <c r="B6" s="83"/>
       <c r="C6" s="15" t="s">
         <v>144</v>
       </c>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" s="87"/>
       <c r="B7" s="83"/>
       <c r="C7" s="15" t="s">
         <v>145</v>
       </c>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="2:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="87"/>
       <c r="B8" s="83"/>
       <c r="C8" s="17" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="18"/>
     </row>
-    <row r="9" spans="2:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="87"/>
       <c r="B9" s="83"/>
     </row>
-    <row r="10" spans="2:37" s="19" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="19" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="87"/>
       <c r="B10" s="83"/>
       <c r="C10" s="53" t="s">
         <v>115</v>
@@ -4659,7 +4674,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="2:37" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="87"/>
       <c r="B11" s="83"/>
       <c r="C11" s="57"/>
       <c r="D11" s="52"/>
@@ -4763,7 +4779,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:37" s="21" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" s="21" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="86" t="b">
+        <v>1</v>
+      </c>
       <c r="B12" s="83"/>
       <c r="C12" s="67" t="s">
         <v>141</v>
@@ -4863,7 +4882,10 @@
       <c r="AJ12" s="30"/>
       <c r="AK12" s="32"/>
     </row>
-    <row r="13" spans="2:37" s="21" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="21" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="85" t="b">
+        <v>1</v>
+      </c>
       <c r="B13" s="83"/>
       <c r="C13" s="70" t="s">
         <v>152</v>
@@ -4961,7 +4983,10 @@
       <c r="AJ13" s="39"/>
       <c r="AK13" s="44"/>
     </row>
-    <row r="14" spans="2:37" s="21" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" s="21" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="85" t="b">
+        <v>1</v>
+      </c>
       <c r="B14" s="83"/>
       <c r="C14" s="70" t="s">
         <v>116</v>
@@ -5065,7 +5090,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="2:37" s="21" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" s="21" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="85" t="b">
+        <v>1</v>
+      </c>
       <c r="B15" s="83"/>
       <c r="C15" s="70" t="s">
         <v>118</v>
@@ -5165,7 +5193,10 @@
       <c r="AJ15" s="39"/>
       <c r="AK15" s="44"/>
     </row>
-    <row r="16" spans="2:37" s="21" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" s="21" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="85" t="b">
+        <v>1</v>
+      </c>
       <c r="B16" s="83"/>
       <c r="C16" s="70" t="s">
         <v>120</v>
@@ -5269,7 +5300,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="2:44" s="21" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" s="21" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="85" t="b">
+        <v>1</v>
+      </c>
       <c r="B17" s="83"/>
       <c r="C17" s="70" t="s">
         <v>121</v>
@@ -5369,7 +5403,10 @@
       <c r="AJ17" s="39"/>
       <c r="AK17" s="44"/>
     </row>
-    <row r="18" spans="2:44" s="21" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" s="21" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="85" t="b">
+        <v>1</v>
+      </c>
       <c r="B18" s="83"/>
       <c r="C18" s="70" t="s">
         <v>122</v>
@@ -5471,7 +5508,10 @@
       <c r="AJ18" s="39"/>
       <c r="AK18" s="44"/>
     </row>
-    <row r="19" spans="2:44" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="85" t="b">
+        <v>1</v>
+      </c>
       <c r="B19" s="83"/>
       <c r="C19" s="70" t="s">
         <v>153</v>
@@ -5569,7 +5609,8 @@
       <c r="AJ19" s="39"/>
       <c r="AK19" s="44"/>
     </row>
-    <row r="20" spans="2:44" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="87"/>
       <c r="B20" s="83"/>
       <c r="C20" s="45"/>
       <c r="D20" s="46"/>
@@ -5613,7 +5654,8 @@
       <c r="AQ20" s="24"/>
       <c r="AR20" s="24"/>
     </row>
-    <row r="21" spans="2:44" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="87"/>
       <c r="B21" s="83"/>
       <c r="C21" s="22"/>
       <c r="D21" s="6"/>
@@ -5656,7 +5698,8 @@
       <c r="AQ21" s="24"/>
       <c r="AR21" s="24"/>
     </row>
-    <row r="22" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="87"/>
       <c r="B22" s="83"/>
       <c r="C22" s="80" t="s">
         <v>96</v>
@@ -5664,7 +5707,8 @@
       <c r="D22" s="81"/>
       <c r="AI22" s="21"/>
     </row>
-    <row r="23" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="87"/>
       <c r="B23" s="83"/>
       <c r="C23" s="10" t="s">
         <v>84</v>
@@ -5689,7 +5733,8 @@
       </c>
       <c r="AI23" s="24"/>
     </row>
-    <row r="24" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="87"/>
       <c r="B24" s="83"/>
       <c r="C24" s="7">
         <v>510158040</v>
@@ -5706,45 +5751,52 @@
       </c>
       <c r="AI24" s="24"/>
     </row>
-    <row r="25" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="87"/>
       <c r="B25" s="83"/>
       <c r="C25" s="11" t="s">
         <v>93</v>
       </c>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A26" s="87"/>
       <c r="B26" s="83"/>
       <c r="C26" s="13" t="s">
         <v>97</v>
       </c>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A27" s="87"/>
       <c r="B27" s="83"/>
       <c r="C27" s="15" t="s">
         <v>98</v>
       </c>
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A28" s="87"/>
       <c r="B28" s="83"/>
       <c r="C28" s="15" t="s">
         <v>99</v>
       </c>
       <c r="D28" s="16"/>
     </row>
-    <row r="29" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="87"/>
       <c r="B29" s="83"/>
       <c r="C29" s="17" t="s">
         <v>100</v>
       </c>
       <c r="D29" s="18"/>
     </row>
-    <row r="30" spans="2:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="87"/>
       <c r="B30" s="83"/>
     </row>
-    <row r="31" spans="2:44" s="19" customFormat="1" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" s="19" customFormat="1" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="87"/>
       <c r="B31" s="83"/>
       <c r="C31" s="75" t="s">
         <v>115</v>
@@ -5870,7 +5922,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="2:44" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="87"/>
       <c r="B32" s="83"/>
       <c r="C32" s="72"/>
       <c r="D32" s="73"/>
@@ -5992,7 +6045,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="2:43" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:43" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="85" t="b">
+        <v>1</v>
+      </c>
       <c r="B33" s="83"/>
       <c r="C33" s="67" t="s">
         <v>123</v>
@@ -6104,7 +6160,10 @@
       <c r="AP33" s="30"/>
       <c r="AQ33" s="32"/>
     </row>
-    <row r="34" spans="2:43" s="21" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" s="21" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="85" t="b">
+        <v>1</v>
+      </c>
       <c r="B34" s="84"/>
       <c r="C34" s="71" t="s">
         <v>124</v>
